--- a/ControleManutencao.xlsx
+++ b/ControleManutencao.xlsx
@@ -1,33 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\leitoPDF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A4681B-741D-443F-BE39-1EBFCD4B97FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="controle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="controle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +62,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,28 +344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="D4:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="H9:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.42578125" customWidth="1" min="4" max="4"/>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12/09/2023</t>
-        </is>
-      </c>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ControleManutencao.xlsx
+++ b/ControleManutencao.xlsx
@@ -1,50 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\leitoPDF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A4681B-741D-443F-BE39-1EBFCD4B97FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="controle" sheetId="1" r:id="rId1"/>
+    <sheet name="controle" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -344,24 +394,732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H9:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col width="65.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.42578125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>15049003 BLOCO B DO CCS</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>22/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15050003 BLOCO D DO CCE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15051003 BLOCO E DO CFH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15052003 BLOCO DE SALAS DE AULA CCA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15053003 CCA ITACORUBI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15054003 USINA DE ALIMENTOS CCA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15055003 BLOCO A - ENGENHARIA CIVIL - CTC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15056003 PLATAFORMA - BLOCO DE LIGACAO  - ENGENHARIA CIVIL - CTC</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15057003 FAZENDA DA RESSACADA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28/09/2023</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15058003 SAPIENS PARK</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28/09/2023</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15059003 BLOCO G - CSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15061003 PLATAFORMA - LABORATORIO TECMIDIA DO CCE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15062003 DEPARTAMENTO DE GESTAO PATRIMONIAL (DGP)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15063003 CFM MATEMATICA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15064003 CCB BLOCO E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15065003 CCB BLOCO F</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15066003 CCB BLOCO G</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>15067003 ENGENHARIA SANITARIA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15068003 CED BLOCO D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15069003 BLOCO DE LIG. J-K DO CCS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>15070003 BLOCO LIG. H-I DO CCS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>15071003 BLOCO E-3 DO CCS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15073003 REITORIA II</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>15074003 BLOCO I CFM (EFI)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15075003 BLOCO I CFM (EFI)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15076003 FISICA CFM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15077003 BLOCO G1 FISICA CFM</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>15078003 MORADIA ESTUDANTIL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15079003 MUSEU UNIVERSITARIO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15080003 CFH BLOCO D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>15081003 CED BLOCO C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>15082003 PLATAFORMA - RESTAURANTE UNIVERSITARIO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>15083003 CCE BLOCO B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>15084003 BLOCO DA POS GRADUACAO CSE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15085003 CCJ</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>15086003 REITORIA I</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15087003 BLOCO 5 DO CDS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15088003 BLOCO ADMINISTRATIVO DO CDS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15089003 BLOCO DA ARQUITETURA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>15090003 LEPTEM/PETROLAB</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15091003 BLOCO F DO CFH</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15092003 CCB BLOCO G</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>15141003 BLOCO B DO CSE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>15142003 BLOCOS DE SALAS DE AULA DO CTC</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>15143003 BLOCO D DO CCE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>15144003 BLOCO F DO CFH</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15145003 SAPIENS PARK</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>28/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>15146003 BLOCO DO INE CTC</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15147003 BLOCO B - ENGENHARIA CIVIL - CTC</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>25/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15149003 CCB BLOCO E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15150003 CCB BLOCO F</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>15151003 CCB BLOCO G</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>15152003 BLOCO H DO CCS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>15153003 BLOCO LIG. I-J DO CCS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>15154003 BLOCO E-3 DO CCS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>22/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>15155003 REITORIA II</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>26/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>15157003 ENGENHARIA MECANICA - CTC</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>15158003 BLOCO DO POLO CTC</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>15159003 CCE BLOCO B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12/09/2023</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
